--- a/98-Arbeitsstunden/Arbeitsstunden_Lidauer.xlsx
+++ b/98-Arbeitsstunden/Arbeitsstunden_Lidauer.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manuel\OneDrive - HTL Wels\SCHOOL\Diplomarbeit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MANUEL\SCHOOL\GitHub\proproduction\98-Arbeitsstunden\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="114_{07CAE329-9FC2-4BBA-83F1-49468C29E989}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{7BE2851C-4F03-4728-BCB7-C8A1E10B1150}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D707B356-F41C-426F-B90F-584865E8B10F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>Dokumente zusammengesucht + genauere Funktionen überlegt</t>
   </si>
@@ -94,6 +94,15 @@
   </si>
   <si>
     <t>Adobe XD</t>
+  </si>
+  <si>
+    <t>Zeitplanung</t>
+  </si>
+  <si>
+    <t>zeit eintragen</t>
+  </si>
+  <si>
+    <t>zeit ändern</t>
   </si>
 </sst>
 </file>
@@ -449,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -474,7 +483,7 @@
       </c>
       <c r="H1" s="7">
         <f>SUM(E4:E89)</f>
-        <v>17.750000000000004</v>
+        <v>16.416666666666668</v>
       </c>
       <c r="I1" s="7" t="s">
         <v>9</v>
@@ -565,7 +574,7 @@
         <v>0.74305555555555547</v>
       </c>
       <c r="E7" s="6">
-        <f t="shared" ref="E7:E16" si="1">(D7-C7)*24</f>
+        <f t="shared" ref="E7:E36" si="1">(D7-C7)*24</f>
         <v>0.33333333333333215</v>
       </c>
     </row>
@@ -731,33 +740,165 @@
         <v>0.25000000000000044</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>43724</v>
       </c>
       <c r="B17" t="s">
         <v>20</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F17">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>43725</v>
       </c>
       <c r="B18" t="s">
         <v>20</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F18">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>43733</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E19" s="6">
+        <f t="shared" si="1"/>
+        <v>1.1666666666666652</v>
+      </c>
+      <c r="F19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
+      <c r="E20" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E21" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E22" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E23" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E24" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E25" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E26" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E27" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E28" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E29" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E30" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E31" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E32" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E33" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E34" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E35" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E36" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/98-Arbeitsstunden/Arbeitsstunden_Lidauer.xlsx
+++ b/98-Arbeitsstunden/Arbeitsstunden_Lidauer.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MANUEL\SCHOOL\GitHub\proproduction\98-Arbeitsstunden\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D707B356-F41C-426F-B90F-584865E8B10F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F0C61C5-E363-44CB-941C-E03354E1BA75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>Dokumente zusammengesucht + genauere Funktionen überlegt</t>
   </si>
@@ -93,16 +93,16 @@
     <t>Adobe XD Seiten grobentwurf gestaltet + Animationen getestet</t>
   </si>
   <si>
-    <t>Adobe XD</t>
-  </si>
-  <si>
     <t>Zeitplanung</t>
   </si>
   <si>
-    <t>zeit eintragen</t>
-  </si>
-  <si>
-    <t>zeit ändern</t>
+    <t>Adobe XD Locations Page</t>
+  </si>
+  <si>
+    <t>Adobe XD gearbeitet</t>
+  </si>
+  <si>
+    <t>Adobe XD Library Page + Shotlist</t>
   </si>
 </sst>
 </file>
@@ -458,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -482,8 +482,8 @@
         <v>8</v>
       </c>
       <c r="H1" s="7">
-        <f>SUM(E4:E89)</f>
-        <v>16.416666666666668</v>
+        <f>SUM(E4:E88)</f>
+        <v>21.916666666666679</v>
       </c>
       <c r="I1" s="7" t="s">
         <v>9</v>
@@ -574,7 +574,7 @@
         <v>0.74305555555555547</v>
       </c>
       <c r="E7" s="6">
-        <f t="shared" ref="E7:E36" si="1">(D7-C7)*24</f>
+        <f t="shared" ref="E7:E35" si="1">(D7-C7)*24</f>
         <v>0.33333333333333215</v>
       </c>
     </row>
@@ -727,150 +727,158 @@
         <v>43724</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C16" s="3">
-        <v>0.35069444444444442</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="D16" s="3">
-        <v>0.3611111111111111</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="E16" s="6">
         <f t="shared" si="1"/>
-        <v>0.25000000000000044</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2.5000000000000018</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>43724</v>
+        <v>43725</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0.6875</v>
       </c>
       <c r="E17" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>2</v>
-      </c>
-      <c r="G17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.50000000000000089</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>43725</v>
+        <v>43733</v>
       </c>
       <c r="B18" t="s">
         <v>20</v>
       </c>
+      <c r="C18" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0.71875</v>
+      </c>
       <c r="E18" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0.5</v>
-      </c>
-      <c r="G18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>43733</v>
+        <v>43737</v>
       </c>
       <c r="B19" t="s">
         <v>21</v>
       </c>
       <c r="C19" s="3">
-        <v>0.40972222222222227</v>
+        <v>0.69097222222222221</v>
       </c>
       <c r="D19" s="3">
-        <v>0.45833333333333331</v>
+        <v>0.71527777777777779</v>
       </c>
       <c r="E19" s="6">
         <f t="shared" si="1"/>
-        <v>1.1666666666666652</v>
-      </c>
-      <c r="F19" t="s">
+        <v>0.58333333333333393</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>43745</v>
+      </c>
+      <c r="B20" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
+      <c r="C20" s="3">
+        <v>0.40277777777777773</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0.44791666666666669</v>
+      </c>
       <c r="E20" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.0833333333333348</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E21" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E22" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E23" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E24" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E25" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E26" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E27" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E28" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E29" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E30" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E31" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E32" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -890,12 +898,6 @@
     </row>
     <row r="35" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E35" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E36" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>

--- a/98-Arbeitsstunden/Arbeitsstunden_Lidauer.xlsx
+++ b/98-Arbeitsstunden/Arbeitsstunden_Lidauer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MANUEL\SCHOOL\GitHub\proproduction\98-Arbeitsstunden\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F0C61C5-E363-44CB-941C-E03354E1BA75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3106003-A396-4C8B-967F-AB3B07166740}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>Dokumente zusammengesucht + genauere Funktionen überlegt</t>
   </si>
@@ -103,6 +103,12 @@
   </si>
   <si>
     <t>Adobe XD Library Page + Shotlist</t>
+  </si>
+  <si>
+    <t>Adobe XD Shotlist Page verbessert + Editing Windows begonnen</t>
+  </si>
+  <si>
+    <t>Vue Projekt getestet</t>
   </si>
 </sst>
 </file>
@@ -461,7 +467,7 @@
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -483,7 +489,7 @@
       </c>
       <c r="H1" s="7">
         <f>SUM(E4:E88)</f>
-        <v>21.916666666666679</v>
+        <v>22.833333333333343</v>
       </c>
       <c r="I1" s="7" t="s">
         <v>9</v>
@@ -802,26 +808,50 @@
         <v>23</v>
       </c>
       <c r="C20" s="3">
-        <v>0.40277777777777773</v>
+        <v>0.65277777777777779</v>
       </c>
       <c r="D20" s="3">
-        <v>0.44791666666666669</v>
+        <v>0.69791666666666663</v>
       </c>
       <c r="E20" s="6">
         <f t="shared" si="1"/>
-        <v>1.0833333333333348</v>
+        <v>1.0833333333333321</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>43750</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0.57638888888888895</v>
+      </c>
       <c r="E21" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.33333333333333481</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>43750</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.76041666666666663</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0.78472222222222221</v>
+      </c>
       <c r="E22" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.58333333333333393</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">

--- a/98-Arbeitsstunden/Arbeitsstunden_Lidauer.xlsx
+++ b/98-Arbeitsstunden/Arbeitsstunden_Lidauer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MANUEL\SCHOOL\GitHub\proproduction\98-Arbeitsstunden\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3106003-A396-4C8B-967F-AB3B07166740}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDCD8B98-57A3-4785-BB4A-E2BF61C35833}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>Dokumente zusammengesucht + genauere Funktionen überlegt</t>
   </si>
@@ -109,6 +109,9 @@
   </si>
   <si>
     <t>Vue Projekt getestet</t>
+  </si>
+  <si>
+    <t>AdobeXD GUI Modell fertig gestellt + Vue Navigation Bar informiert</t>
   </si>
 </sst>
 </file>
@@ -467,7 +470,7 @@
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -489,7 +492,7 @@
       </c>
       <c r="H1" s="7">
         <f>SUM(E4:E88)</f>
-        <v>22.833333333333343</v>
+        <v>23.500000000000014</v>
       </c>
       <c r="I1" s="7" t="s">
         <v>9</v>
@@ -855,9 +858,21 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>43752</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0.88194444444444453</v>
+      </c>
       <c r="E23" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.66666666666666963</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
